--- a/add-info-dmp/ig/SubmissionSetToPDSM.xlsx
+++ b/add-info-dmp/ig/SubmissionSetToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:49:42+00:00</t>
+    <t>2025-04-30T16:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/SubmissionSetToPDSM.xlsx
+++ b/add-info-dmp/ig/SubmissionSetToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:02:39+00:00</t>
+    <t>2025-05-01T10:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
